--- a/CHIA_VIEC/CHIA_VIEC.xlsx
+++ b/CHIA_VIEC/CHIA_VIEC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CYBER\ShopPhone\CHIA_VIEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388DB84B-675D-4056-848A-236775E51BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2137EB-914E-4F65-84A7-9D19BF809A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Merge code, Deploy, Record Video</t>
+  </si>
+  <si>
+    <t>Mockup API</t>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
   <dimension ref="A1:J978"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -717,98 +720,126 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="12">
+        <v>44936</v>
+      </c>
+      <c r="C4" s="12">
+        <v>44936</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12">
+        <v>45056</v>
+      </c>
+      <c r="G4" s="12">
+        <v>45056</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B8" s="12">
         <v>44936</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C8" s="14">
         <v>44967</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F8" s="12">
         <v>45056</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G8" s="12">
         <v>45056</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J8" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B9" s="12">
         <v>44936</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C9" s="12">
         <v>45056</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F9" s="12">
         <v>45056</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G9" s="12">
         <v>45056</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J9" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B10" s="12">
         <v>45056</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C10" s="12">
         <v>45056</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F10" s="12">
         <v>45056</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G10" s="12">
         <v>45056</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J10" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1777,7 +1808,7 @@
     <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="D2:D3 H2:H3 D5:D7 H5:H7">
+  <conditionalFormatting sqref="D8:D10 H8:H10 D2:D4 H2:H4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>

--- a/CHIA_VIEC/CHIA_VIEC.xlsx
+++ b/CHIA_VIEC/CHIA_VIEC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CYBER\ShopPhone\CHIA_VIEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2137EB-914E-4F65-84A7-9D19BF809A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A4F44F-56B9-4181-8748-D80E08C6288D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -51,9 +51,6 @@
   <si>
     <t>% 
 Build</t>
-  </si>
-  <si>
-    <t>Names</t>
   </si>
   <si>
     <t>Start
@@ -89,10 +86,16 @@
     <t>Trí</t>
   </si>
   <si>
-    <t>Merge code, Deploy, Record Video</t>
+    <t>Mockup API</t>
   </si>
   <si>
-    <t>Mockup API</t>
+    <t>Names Of Tester</t>
+  </si>
+  <si>
+    <t>Names Of Developer</t>
+  </si>
+  <si>
+    <t>Merge code, Deploy</t>
   </si>
 </sst>
 </file>
@@ -609,8 +612,8 @@
   </sheetPr>
   <dimension ref="A1:J978"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -619,11 +622,11 @@
     <col min="2" max="2" width="7.625" style="13" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="13" customWidth="1"/>
     <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="13" customWidth="1"/>
     <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
     <col min="11" max="26" width="7.625" customWidth="1"/>
   </cols>
@@ -642,27 +645,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="12">
         <v>44936</v>
@@ -674,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="12">
         <v>45056</v>
@@ -686,13 +689,13 @@
         <v>1</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="12">
         <v>44936</v>
@@ -704,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="12">
         <v>45056</v>
@@ -716,13 +719,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="12">
         <v>44936</v>
@@ -734,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="12">
         <v>45056</v>
@@ -746,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="12">
         <v>44936</v>
@@ -764,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="12">
         <v>45056</v>
@@ -776,13 +779,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="12">
         <v>44936</v>
@@ -794,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="12">
         <v>45056</v>
@@ -806,13 +809,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="12">
         <v>45056</v>
@@ -824,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="12">
         <v>45056</v>
@@ -836,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="8"/>
     </row>
@@ -1808,7 +1811,7 @@
     <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="D8:D10 H8:H10 D2:D4 H2:H4">
+  <conditionalFormatting sqref="D2:D4 H2:H4 D8:D10 H8:H10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
